--- a/data/trans_camb/IMC_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Clase-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/IMC_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>5.479991634677289</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.155253122947662</v>
+        <v>2.155253122947659</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.686088481362222</v>
@@ -664,7 +664,7 @@
         <v>5.273351863640309</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.512768833643367</v>
+        <v>2.512768833643365</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.511957850848577</v>
+        <v>-3.125085718890667</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6447676548847494</v>
+        <v>0.9055342568673975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.815443552206408</v>
+        <v>-2.185946428582525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.877581028595072</v>
+        <v>-2.232105268961536</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.295254478107395</v>
+        <v>1.466168759304229</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.03867917747950132</v>
+        <v>0.3378077344967639</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.288865694064227</v>
+        <v>-1.776977480717788</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.131266427610182</v>
+        <v>2.05527275689829</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3530112539262498</v>
+        <v>-0.5320907154910509</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.119538664449401</v>
+        <v>5.536069510258343</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.19257960987103</v>
+        <v>10.37112598029258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.668713453140263</v>
+        <v>6.059156118604838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.77916000484782</v>
+        <v>5.573383137173466</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.904480172362904</v>
+        <v>9.977741270666142</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.122210933877899</v>
+        <v>7.030443957713037</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.36492844988839</v>
+        <v>4.083038708876309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.900691526383822</v>
+        <v>8.707018283277842</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.419186620737117</v>
+        <v>5.103116251577955</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4891048483359061</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1923624746348507</v>
+        <v>0.1923624746348505</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3210414234190477</v>
@@ -769,7 +769,7 @@
         <v>0.5948170455290731</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2834322025865161</v>
+        <v>0.283432202586516</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2653349836559281</v>
+        <v>-0.2401426703342341</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04101526602943923</v>
+        <v>0.06183744458726064</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1485191873676136</v>
+        <v>-0.1667129284934445</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3193530753134198</v>
+        <v>-0.3472546317979052</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1770128226474326</v>
+        <v>0.172285025026508</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02673708743147309</v>
+        <v>0.04084788532860148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2220581330702918</v>
+        <v>-0.1822547420500038</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2018607640237405</v>
+        <v>0.1760242906370157</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.03580716650334093</v>
+        <v>-0.05222738186511035</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.559547634370624</v>
+        <v>0.6045251483328159</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.100647078447428</v>
+        <v>1.089425695738141</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7641899280121286</v>
+        <v>0.7017415155440189</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.590294768738263</v>
+        <v>1.538542010487464</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.921648048244883</v>
+        <v>2.89238936786521</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.070784612283684</v>
+        <v>2.085357063240745</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6095016388884774</v>
+        <v>0.5468925617873149</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.2248552272017</v>
+        <v>1.158039533869777</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7454530233810289</v>
+        <v>0.6781265412665881</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.114631487202834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.90400839429688</v>
+        <v>4.904008394296877</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.750473263539011</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.320682086899494</v>
+        <v>-2.509748940914359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.346623387664967</v>
+        <v>-2.935980363714504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6787272397478429</v>
+        <v>-0.2069493698416627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4574186892236397</v>
+        <v>-0.7658115154820042</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.867513657852592</v>
+        <v>-1.74458690668796</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.926376082937699</v>
+        <v>1.820094209229759</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1037608007981384</v>
+        <v>0.128081391478822</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.319804010598342</v>
+        <v>-1.007158602733103</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.106510042734195</v>
+        <v>2.499918289623232</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.155169342017366</v>
+        <v>8.399524416444763</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.311528373810047</v>
+        <v>7.503922193741793</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.824697888484922</v>
+        <v>10.13472686483034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.067728621400114</v>
+        <v>8.795143192948348</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.850667900491179</v>
+        <v>6.868054973802599</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.03857762731471</v>
+        <v>9.778811625672969</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.908791032598869</v>
+        <v>7.261340054132607</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.456262068910989</v>
+        <v>5.853644783148924</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.792378060256482</v>
+        <v>8.593260515889755</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1716536336106835</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3980792233694802</v>
+        <v>0.39807922336948</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5037680799584978</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1645478304424013</v>
+        <v>-0.1751341736803426</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2221182130970601</v>
+        <v>-0.2067176242261719</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05333790866093108</v>
+        <v>-0.0176743135759093</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06229797658913303</v>
+        <v>-0.118311670723854</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.208357005178496</v>
+        <v>-0.19766194467642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1897416519482259</v>
+        <v>0.1638437232424567</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0135454329890035</v>
+        <v>0.008403953876999069</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1218450657526717</v>
+        <v>-0.08849937160911835</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1714085667072854</v>
+        <v>0.2237875975111741</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8291851020917785</v>
+        <v>0.8552655508729778</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7464958584885912</v>
+        <v>0.7834771562083614</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.005511150684643</v>
+        <v>1.036412801634323</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.606474576613211</v>
+        <v>1.602331058733595</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.185851347725661</v>
+        <v>1.190380183581844</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.828498755566248</v>
+        <v>1.875921899929448</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7915926068377057</v>
+        <v>0.8861054487995825</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6589847784998357</v>
+        <v>0.7353203626567275</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.093712614493977</v>
+        <v>1.07584550757306</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.904933578255236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.539098944922637</v>
+        <v>4.539098944922642</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.533871853812517</v>
@@ -1083,7 +1083,7 @@
         <v>-0.123418241779899</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.60141828815304</v>
+        <v>-2.601418288153037</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.628196125843108</v>
@@ -1092,7 +1092,7 @@
         <v>1.433231502204046</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.629568830753118</v>
+        <v>2.629568830753124</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.025053744054803</v>
+        <v>1.063404445209813</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.510790396907113</v>
+        <v>-2.425345256712834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0131684172927986</v>
+        <v>0.1533020464158235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2167557780697715</v>
+        <v>-0.4763773541476926</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.229469637523485</v>
+        <v>-7.817141542631055</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.29145935173559</v>
+        <v>-9.813279208151403</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.872480388966948</v>
+        <v>2.71440655818098</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.569777330150883</v>
+        <v>-2.824097096435998</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.334433316552749</v>
+        <v>-1.345138592997509</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.99127754607907</v>
+        <v>10.17846768811357</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.79045690381988</v>
+        <v>6.998136418238467</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.842988702981556</v>
+        <v>9.824555773648635</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.3401471762133</v>
+        <v>16.47125752595545</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.537637354269139</v>
+        <v>8.209587194394393</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.97555483130065</v>
+        <v>4.921274941090681</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.98262212970663</v>
+        <v>10.93746619567112</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.727186513530889</v>
+        <v>5.33583069436652</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.417299938473871</v>
+        <v>6.254732468615777</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1229159746109277</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2928856822302519</v>
+        <v>0.2928856822302522</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4817542257449376</v>
@@ -1188,7 +1188,7 @@
         <v>-0.0069672079133593</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1468552932029323</v>
+        <v>-0.1468552932029322</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4138991126150771</v>
@@ -1197,7 +1197,7 @@
         <v>0.08949844507788637</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1642039832474842</v>
+        <v>0.1642039832474845</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06682012672916501</v>
+        <v>0.0670989562521723</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1496569839448112</v>
+        <v>-0.1418876288408952</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.003111308464329381</v>
+        <v>0.001785269154134328</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.008907261757461815</v>
+        <v>-0.02096711100432903</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4276967487217074</v>
+        <v>-0.3846516704210492</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4486929805252388</v>
+        <v>-0.4505967766782455</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1633258328504065</v>
+        <v>0.1444314137974447</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1432522063398309</v>
+        <v>-0.1598041388441147</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.0761141056168927</v>
+        <v>-0.08481599462102658</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.795860952433834</v>
+        <v>0.7835887619967271</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5054119359554068</v>
+        <v>0.5262954451018672</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7286479658117591</v>
+        <v>0.706408513625878</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.259096678595784</v>
+        <v>1.222267399628876</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6660335134842386</v>
+        <v>0.6007278347832364</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.289854167972039</v>
+        <v>0.3754866305639498</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8227215762721112</v>
+        <v>0.7625034073233039</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4016264091392368</v>
+        <v>0.3846385783613508</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4482147189327454</v>
+        <v>0.4136085655781447</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.071418549000433</v>
+        <v>1.765984162003491</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.002792510514789</v>
+        <v>2.475947765030784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.03496396078959</v>
+        <v>2.963503773199193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.010166564432069</v>
+        <v>1.052436776980999</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.726849284566376</v>
+        <v>-1.724121452795667</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5813464362490272</v>
+        <v>-0.6610453721456583</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.654619489424318</v>
+        <v>2.236218392431521</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.76700556930151</v>
+        <v>1.861254899972062</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.46349860734797</v>
+        <v>2.584324118242601</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.209980858742638</v>
+        <v>8.076837472587252</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.116932385313323</v>
+        <v>8.836970660808946</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.267423197857134</v>
+        <v>9.320887242262966</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.100371349235303</v>
+        <v>9.065383235314199</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.783379659893987</v>
+        <v>5.569607141807316</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.519768045454192</v>
+        <v>6.297125736273171</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.686113602992912</v>
+        <v>7.230561345032998</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.691674710466974</v>
+        <v>6.85605050912543</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.080918361788015</v>
+        <v>7.303563994608458</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1369223989392888</v>
+        <v>0.1142643153196061</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2068930235936004</v>
+        <v>0.1705693025971006</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2040432538073348</v>
+        <v>0.1962660342193012</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06101445176373695</v>
+        <v>0.06686545297584663</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.116803638574149</v>
+        <v>-0.121734988972123</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03812116424740032</v>
+        <v>-0.03935735755989389</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1836181840882654</v>
+        <v>0.1690539025123289</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1249165078909537</v>
+        <v>0.1319472525585562</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1648450388068242</v>
+        <v>0.1704272860499798</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6907727690925207</v>
+        <v>0.6874569141198136</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7734544927068723</v>
+        <v>0.7425902460648214</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7643316115656976</v>
+        <v>0.7877504408497669</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7912104515908379</v>
+        <v>0.7970594388745805</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4945764645233085</v>
+        <v>0.4836038778526914</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5633063623243185</v>
+        <v>0.5765561298949381</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6266722441620658</v>
+        <v>0.5950864084034853</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5615357044883418</v>
+        <v>0.5597949110166156</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5779563986608814</v>
+        <v>0.5937840610822197</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>8.280474877371692</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.604886587822169</v>
+        <v>5.604886587822164</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>8.254626046110806</v>
@@ -1511,7 +1511,7 @@
         <v>5.228962297238207</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.394784812627151</v>
+        <v>5.394784812627146</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.188647929636055</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.07905470838083</v>
+        <v>1.050102638516529</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.432119128179108</v>
+        <v>3.211565588868428</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6264364705634468</v>
+        <v>0.3035482373893925</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.571503917219815</v>
+        <v>3.685113258171265</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4596252525796297</v>
+        <v>0.9563164508086298</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.228394118356325</v>
+        <v>0.7940839541842424</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.776929352653774</v>
+        <v>3.312450590431933</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.081957194879984</v>
+        <v>2.781700948838132</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.672010227190933</v>
+        <v>2.246655436772745</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.17708002803823</v>
+        <v>11.2390441700516</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.6359706662655</v>
+        <v>13.52248424643656</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.49192623558156</v>
+        <v>10.45186586039134</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.0767769438941</v>
+        <v>13.38268407032704</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.810470676028535</v>
+        <v>10.34322858799911</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.740585385695324</v>
+        <v>9.377780024456747</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.89352190224734</v>
+        <v>10.30148412078553</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.063174123779051</v>
+        <v>9.508677228499712</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.178497027939798</v>
+        <v>8.622078212339117</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.6787432358701188</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4594276192660783</v>
+        <v>0.4594276192660779</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4277521340576624</v>
@@ -1616,7 +1616,7 @@
         <v>0.2709631870730872</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2795560578386684</v>
+        <v>0.2795560578386681</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4330397395378943</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.06756319464817315</v>
+        <v>0.04625037712869318</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2226722988421795</v>
+        <v>0.2097941504064497</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.02833036547446369</v>
+        <v>0.01119831602374545</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1640073927616008</v>
+        <v>0.1689112018187424</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02251124955911203</v>
+        <v>0.03920595568306144</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05706636091982469</v>
+        <v>0.03782154490823175</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1939966209320884</v>
+        <v>0.1761246060731654</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1073094718585874</v>
+        <v>0.1547247959036508</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.08884226375504306</v>
+        <v>0.1238596587655937</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.188468637676847</v>
+        <v>1.149285521020892</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.486330130128513</v>
+        <v>1.477203935765087</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.13484426044435</v>
+        <v>1.073530306757762</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7939532142660751</v>
+        <v>0.8072026024510391</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5864296629449738</v>
+        <v>0.6271617534211938</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5976591543190806</v>
+        <v>0.5868684433703089</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7348256256656337</v>
+        <v>0.6953209414081338</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6129440466101914</v>
+        <v>0.6456434798394298</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5511235093173041</v>
+        <v>0.6033720753788829</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.748422710765262</v>
+        <v>-1.819236402921258</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.8808795391755047</v>
+        <v>-0.8667117350641164</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.057770159638251</v>
+        <v>-0.8631364808703034</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.762746014059998</v>
+        <v>2.783052369427588</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.255550489973095</v>
+        <v>1.564565045418995</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.224635144272779</v>
+        <v>-3.079506201339897</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.998596670419949</v>
+        <v>2.372128279727253</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.113688999268376</v>
+        <v>0.9185812785074635</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.683041653656669</v>
+        <v>-2.758313489448875</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.341278915136034</v>
+        <v>4.194212069551586</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.273296384688201</v>
+        <v>5.741256432047839</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.204107843581639</v>
+        <v>9.470926472464093</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.5617804187874</v>
+        <v>9.750226776183137</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.470770232813882</v>
+        <v>8.549676348974272</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.317485387595726</v>
+        <v>3.150648793399661</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.976976088286136</v>
+        <v>8.044785687848217</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.067058191658099</v>
+        <v>6.961525455082364</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.953433589034808</v>
+        <v>2.823920743019961</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5243119311291157</v>
+        <v>-0.4661848424029761</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2776763630231431</v>
+        <v>-0.3311992833396078</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4780695842029593</v>
+        <v>-0.4293339121930095</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1386992908762361</v>
+        <v>0.1372221559863181</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.06470171590195779</v>
+        <v>0.078833219832221</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1654296080646481</v>
+        <v>-0.1589568935290169</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1243174991647311</v>
+        <v>0.1399811625060395</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.06799567844333251</v>
+        <v>0.05744030787333482</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1640192920845202</v>
+        <v>-0.1658089370681441</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.728210007603656</v>
+        <v>3.054119131836798</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.814465462077926</v>
+        <v>4.057261704182837</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.531728653297164</v>
+        <v>6.087652069324128</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5941489136736169</v>
+        <v>0.5890618192328879</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5131977927923986</v>
+        <v>0.5192330728458594</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1991609448516317</v>
+        <v>0.1894271881683338</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5767200008635692</v>
+        <v>0.5754684669524971</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5033561206817012</v>
+        <v>0.4967775249699952</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2093774841924055</v>
+        <v>0.207524170131936</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>4.889130976304096</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.83102838691975</v>
+        <v>4.831028386919753</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>6.101074905418432</v>
@@ -1948,7 +1948,7 @@
         <v>4.299602660899216</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.576365876970971</v>
+        <v>3.576365876970977</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.78501903814789</v>
+        <v>2.519476429274567</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.183209470050066</v>
+        <v>3.118829823700909</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.156919249553621</v>
+        <v>2.956586310838753</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.30997194428608</v>
+        <v>4.202672632220895</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.969327907316383</v>
+        <v>1.988462908407205</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.7860841319360591</v>
+        <v>0.8027634600223347</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.944040089159186</v>
+        <v>3.954440207977125</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.03532799927604</v>
+        <v>2.913149959636004</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.457786878892901</v>
+        <v>2.30033641646429</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.267266030231871</v>
+        <v>6.175722248965612</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.676142383117011</v>
+        <v>6.677877603058446</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.613282495785658</v>
+        <v>6.804320098890614</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.981896981849966</v>
+        <v>8.12551774756313</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.68153760981926</v>
+        <v>5.831640982990328</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.990870203609238</v>
+        <v>3.885640302716197</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.5493536928675</v>
+        <v>6.530349372201876</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.557195815966588</v>
+        <v>5.6822748415347</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.80116332289942</v>
+        <v>4.671748239871441</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.4024644894445154</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3976815885393627</v>
+        <v>0.3976815885393629</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4087626979180303</v>
@@ -2053,7 +2053,7 @@
         <v>0.3171629957152391</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2638129624463129</v>
+        <v>0.2638129624463133</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2130592024876816</v>
+        <v>0.1907989578306233</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2486624063119917</v>
+        <v>0.2402360963855686</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2481897258098283</v>
+        <v>0.2236508509517869</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2763662778238327</v>
+        <v>0.2642478429726836</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1213415831326789</v>
+        <v>0.1245794049321996</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04735495058062723</v>
+        <v>0.04875245716716369</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2767245151108092</v>
+        <v>0.2820392953595479</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2113458323700915</v>
+        <v>0.206714812091468</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1699449225570466</v>
+        <v>0.1588382349612788</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5519182319756797</v>
+        <v>0.5391691892211389</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.589187373241477</v>
+        <v>0.5848525263965725</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5845658655972042</v>
+        <v>0.5951321522212218</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5716725943969928</v>
+        <v>0.5829673892469042</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3957362558473413</v>
+        <v>0.4191868496467325</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2868462272924351</v>
+        <v>0.2786659307657341</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5018464348158221</v>
+        <v>0.5101043029271627</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4291023121505034</v>
+        <v>0.4368677662570296</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3715342598972778</v>
+        <v>0.3570655016475702</v>
       </c>
     </row>
     <row r="46">
